--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -540,10 +540,10 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.265744</v>
+        <v>0.162165</v>
       </c>
       <c r="N2">
-        <v>0.7972319999999999</v>
+        <v>0.486495</v>
       </c>
       <c r="O2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="P2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="Q2">
-        <v>2.433407001077334</v>
+        <v>1.48493831029</v>
       </c>
       <c r="R2">
-        <v>21.900663009696</v>
+        <v>13.36444479261</v>
       </c>
       <c r="S2">
-        <v>0.100326942692432</v>
+        <v>0.09754703994695904</v>
       </c>
       <c r="T2">
-        <v>0.100326942692432</v>
+        <v>0.09754703994695905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>0.922749</v>
       </c>
       <c r="O3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="P3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="Q3">
         <v>2.816525022624667</v>
@@ -632,10 +632,10 @@
         <v>25.348725203622</v>
       </c>
       <c r="S3">
-        <v>0.1161225164600755</v>
+        <v>0.1850202644714057</v>
       </c>
       <c r="T3">
-        <v>0.1161225164600755</v>
+        <v>0.1850202644714057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.994584333333333</v>
+        <v>1.141763333333333</v>
       </c>
       <c r="N4">
-        <v>5.983752999999999</v>
+        <v>3.42529</v>
       </c>
       <c r="O4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="P4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="Q4">
-        <v>18.26432762723711</v>
+        <v>10.45508041162445</v>
       </c>
       <c r="R4">
-        <v>164.378948645134</v>
+        <v>94.09572370462001</v>
       </c>
       <c r="S4">
-        <v>0.7530200046117916</v>
+        <v>0.6868043874241656</v>
       </c>
       <c r="T4">
-        <v>0.7530200046117915</v>
+        <v>0.6868043874241656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.265744</v>
+        <v>0.162165</v>
       </c>
       <c r="N5">
-        <v>0.7972319999999999</v>
+        <v>0.486495</v>
       </c>
       <c r="O5">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="P5">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="Q5">
-        <v>0.07663286302399999</v>
+        <v>0.046918172405</v>
       </c>
       <c r="R5">
-        <v>0.689695767216</v>
+        <v>0.422263551645</v>
       </c>
       <c r="S5">
-        <v>0.003159496481090917</v>
+        <v>0.003082100317645544</v>
       </c>
       <c r="T5">
-        <v>0.003159496481090917</v>
+        <v>0.003082100317645544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>0.922749</v>
       </c>
       <c r="O6">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="P6">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="Q6">
-        <v>0.08869801729299999</v>
+        <v>0.08899104136433335</v>
       </c>
       <c r="R6">
-        <v>0.798282155637</v>
+        <v>0.8009193722790001</v>
       </c>
       <c r="S6">
-        <v>0.003656930753444621</v>
+        <v>0.005845907945625563</v>
       </c>
       <c r="T6">
-        <v>0.003656930753444621</v>
+        <v>0.005845907945625563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.994584333333333</v>
+        <v>1.141763333333333</v>
       </c>
       <c r="N7">
-        <v>5.983752999999999</v>
+        <v>3.42529</v>
       </c>
       <c r="O7">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="P7">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="Q7">
-        <v>0.5751802787876665</v>
+        <v>0.3303391540655556</v>
       </c>
       <c r="R7">
-        <v>5.176622509088999</v>
+        <v>2.97305238659</v>
       </c>
       <c r="S7">
-        <v>0.02371410900116555</v>
+        <v>0.02170029989419852</v>
       </c>
       <c r="T7">
-        <v>0.02371410900116555</v>
+        <v>0.02170029989419852</v>
       </c>
     </row>
   </sheetData>
